--- a/content/Book Eight 21-24.xlsx
+++ b/content/Book Eight 21-24.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104D841-6A3E-41FE-9195-8CF378224507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A62D5-C9A8-458B-8859-A6478848CB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 8-21" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="2018">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -6041,25 +6041,47 @@
     <t>3-PS</t>
   </si>
   <si>
-    <t>SHLOKA 26 MISSING</t>
+    <t>नैवं वीर्यो जलचरो दृष्टोऽस्माभि: श्रुतोऽपि ।</t>
+  </si>
+  <si>
+    <t>न-एवम् वीर्य: जलचर: दृष्ट:</t>
+  </si>
+  <si>
+    <t>अस्माभि: श्रुत:-अपि</t>
+  </si>
+  <si>
+    <t>य: भवान् योजन-शतम्-</t>
+  </si>
+  <si>
+    <t>अह्ना-अभिव्यानशे सर:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have never seen or heard of an acquatic creature of such power, in that, you spreading for a hundred yojanas, have encircled the pond. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">यो भवान् योजनशतमह्नाभिव्यानशे सर: ॥२६॥	</t>
+  </si>
+  <si>
+    <t>not such powerful acquatic creature, seen</t>
+  </si>
+  <si>
+    <t>by us, heard of also</t>
+  </si>
+  <si>
+    <t>that you yojana hundred</t>
+  </si>
+  <si>
+    <t>spreading, have encircled the pond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6085,7 +6107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6098,7 +6120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6440,9 +6461,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19362,11 +19381,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E463"/>
+  <dimension ref="A1:E469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19378,31 +19395,40 @@
     <col min="6" max="16384" width="92" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="6" t="s">
-        <v>2007</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1999</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1999</v>
+        <v>2000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -19411,12 +19437,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -19425,38 +19451,38 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>617</v>
+      <c r="D5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19467,24 +19493,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>621</v>
+        <v>1551</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -19495,13 +19524,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1551</v>
+        <v>622</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -19512,13 +19541,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>622</v>
+        <v>1554</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19529,44 +19558,41 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1558</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -19577,24 +19603,27 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>623</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -19605,13 +19634,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19622,13 +19651,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1563</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19639,44 +19668,41 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
       <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1567</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -19687,24 +19713,27 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>625</v>
+        <v>1568</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -19715,13 +19744,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -19732,13 +19761,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1569</v>
+        <v>626</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1571</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19749,61 +19778,58 @@
         <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>626</v>
+        <v>1572</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="1">
         <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>628</v>
+      <c r="D27" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -19814,24 +19840,27 @@
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>631</v>
+        <v>1574</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -19842,13 +19871,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1574</v>
+        <v>633</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1575</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -19859,13 +19888,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19876,61 +19905,58 @@
         <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>638</v>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -19941,24 +19967,27 @@
         <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>640</v>
+        <v>1577</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -19969,13 +19998,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -19986,13 +20015,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -20003,44 +20032,41 @@
         <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B43" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1585</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -20051,24 +20077,27 @@
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B45" s="1">
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>641</v>
+        <v>1586</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -20079,13 +20108,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -20096,13 +20125,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -20113,44 +20142,41 @@
         <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B49" s="1">
         <v>6</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B50" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>1961</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -20161,24 +20187,27 @@
         <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1594</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B52" s="1">
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>643</v>
+        <v>1595</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -20189,13 +20218,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1595</v>
+        <v>644</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1596</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -20206,13 +20235,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>644</v>
+        <v>1597</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1962</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -20223,44 +20252,41 @@
         <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B56" s="1">
         <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B57" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>1963</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -20271,24 +20297,27 @@
         <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B59" s="1">
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>646</v>
+        <v>1601</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -20299,13 +20328,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -20316,13 +20345,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1607</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -20333,44 +20362,41 @@
         <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B63" s="1">
         <v>8</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B64" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1965</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -20381,24 +20407,27 @@
         <v>9</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>648</v>
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B66" s="1">
         <v>9</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>647</v>
+        <v>1608</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -20409,13 +20438,13 @@
         <v>9</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -20426,13 +20455,13 @@
         <v>9</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1609</v>
+        <v>649</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -20443,44 +20472,41 @@
         <v>9</v>
       </c>
       <c r="C69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B70" s="1">
         <v>9</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B71" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>1613</v>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -20491,24 +20517,27 @@
         <v>10</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>652</v>
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B73" s="1">
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>653</v>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -20519,13 +20548,13 @@
         <v>10</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -20536,13 +20565,13 @@
         <v>10</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -20553,47 +20582,44 @@
         <v>10</v>
       </c>
       <c r="C76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B77" s="1">
         <v>10</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B78" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>2004</v>
       </c>
@@ -20601,24 +20627,27 @@
         <v>11</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B80" s="1">
         <v>11</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>655</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -20629,13 +20658,13 @@
         <v>11</v>
       </c>
       <c r="C81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1623</v>
+        <v>656</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20646,13 +20675,13 @@
         <v>11</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>656</v>
+        <v>1626</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20663,44 +20692,41 @@
         <v>11</v>
       </c>
       <c r="C83" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1626</v>
+        <v>657</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B84" s="1">
         <v>11</v>
       </c>
       <c r="C84" s="1">
-        <v>4</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B85" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>1629</v>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20711,24 +20737,27 @@
         <v>12</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B87" s="1">
         <v>12</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>659</v>
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20739,13 +20768,13 @@
         <v>12</v>
       </c>
       <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>660</v>
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1966</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -20756,13 +20785,13 @@
         <v>12</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20773,44 +20802,41 @@
         <v>12</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>662</v>
+        <v>4</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1630</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B91" s="1">
         <v>12</v>
       </c>
       <c r="C91" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B92" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>1632</v>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -20821,24 +20847,27 @@
         <v>13</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B94" s="1">
         <v>13</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>665</v>
+        <v>1633</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -20849,13 +20878,13 @@
         <v>13</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -20866,13 +20895,13 @@
         <v>13</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1635</v>
+        <v>667</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1636</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -20883,44 +20912,41 @@
         <v>13</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>667</v>
+        <v>1637</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B98" s="1">
         <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B99" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>1967</v>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -20931,10 +20957,10 @@
         <v>14</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20945,24 +20971,27 @@
         <v>14</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B102" s="1">
         <v>14</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>671</v>
+        <v>1639</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20973,13 +21002,13 @@
         <v>14</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1639</v>
+        <v>672</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1640</v>
+        <v>673</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20990,13 +21019,13 @@
         <v>14</v>
       </c>
       <c r="C104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>672</v>
+        <v>1641</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>673</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -21007,13 +21036,13 @@
         <v>14</v>
       </c>
       <c r="C105" s="1">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>1641</v>
+        <v>4</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>1643</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -21024,13 +21053,13 @@
         <v>14</v>
       </c>
       <c r="C106" s="1">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>1643</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1645</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -21041,44 +21070,41 @@
         <v>14</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B108" s="1">
         <v>14</v>
       </c>
       <c r="C108" s="1">
-        <v>6</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B109" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>674</v>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -21089,24 +21115,27 @@
         <v>15</v>
       </c>
       <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>675</v>
+        <v>2</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B111" s="1">
         <v>15</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>676</v>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -21117,13 +21146,13 @@
         <v>15</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -21134,13 +21163,13 @@
         <v>15</v>
       </c>
       <c r="C113" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -21151,44 +21180,41 @@
         <v>15</v>
       </c>
       <c r="C114" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B115" s="1">
         <v>15</v>
       </c>
       <c r="C115" s="1">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B116" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>677</v>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -21199,24 +21225,27 @@
         <v>16</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B118" s="1">
         <v>16</v>
       </c>
       <c r="C118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>678</v>
+        <v>1657</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -21227,13 +21256,13 @@
         <v>16</v>
       </c>
       <c r="C119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21244,13 +21273,13 @@
         <v>16</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1658</v>
+        <v>3</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>1661</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -21261,44 +21290,41 @@
         <v>16</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>1661</v>
+        <v>4</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1663</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B122" s="1">
         <v>16</v>
       </c>
       <c r="C122" s="1">
-        <v>4</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B123" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>1665</v>
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -21309,24 +21335,27 @@
         <v>17</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B125" s="1">
         <v>17</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>681</v>
+        <v>1666</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -21337,13 +21366,13 @@
         <v>17</v>
       </c>
       <c r="C126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -21354,13 +21383,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>1668</v>
+        <v>3</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>1670</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -21371,44 +21400,41 @@
         <v>17</v>
       </c>
       <c r="C128" s="1">
-        <v>3</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>1670</v>
+        <v>4</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>1672</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B129" s="1">
         <v>17</v>
       </c>
       <c r="C129" s="1">
-        <v>4</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B130" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>682</v>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -21419,24 +21445,27 @@
         <v>18</v>
       </c>
       <c r="C131" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B132" s="1">
         <v>18</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>683</v>
+        <v>1674</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>1968</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -21447,13 +21476,13 @@
         <v>18</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1968</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -21464,13 +21493,13 @@
         <v>18</v>
       </c>
       <c r="C134" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -21481,44 +21510,41 @@
         <v>18</v>
       </c>
       <c r="C135" s="1">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>1677</v>
+        <v>4</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>1679</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B136" s="1">
         <v>18</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B137" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1">
-        <v>0</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>685</v>
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -21529,24 +21555,27 @@
         <v>19</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B139" s="1">
         <v>19</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -21557,13 +21586,13 @@
         <v>19</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>687</v>
+        <v>1682</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>689</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -21574,13 +21603,13 @@
         <v>19</v>
       </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -21591,44 +21620,41 @@
         <v>19</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1684</v>
+        <v>688</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B143" s="1">
         <v>19</v>
       </c>
       <c r="C143" s="1">
-        <v>4</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B144" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>1969</v>
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21639,24 +21665,27 @@
         <v>20</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B146" s="1">
         <v>20</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>691</v>
+        <v>1686</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21667,13 +21696,13 @@
         <v>20</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -21684,13 +21713,13 @@
         <v>20</v>
       </c>
       <c r="C148" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21701,44 +21730,41 @@
         <v>20</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B150" s="1">
         <v>20</v>
       </c>
       <c r="C150" s="1">
-        <v>4</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B151" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C151" s="1">
-        <v>0</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>1971</v>
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21749,24 +21775,27 @@
         <v>21</v>
       </c>
       <c r="C152" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B153" s="1">
         <v>21</v>
       </c>
       <c r="C153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>692</v>
+        <v>1694</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21777,13 +21806,13 @@
         <v>21</v>
       </c>
       <c r="C154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21794,13 +21823,13 @@
         <v>21</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1696</v>
+        <v>693</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21811,44 +21840,41 @@
         <v>21</v>
       </c>
       <c r="C156" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>693</v>
+        <v>1698</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B157" s="1">
         <v>21</v>
       </c>
       <c r="C157" s="1">
-        <v>4</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B158" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>695</v>
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -21859,24 +21885,27 @@
         <v>22</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B160" s="1">
         <v>22</v>
       </c>
       <c r="C160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>697</v>
+        <v>1700</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -21887,13 +21916,13 @@
         <v>22</v>
       </c>
       <c r="C161" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1700</v>
+        <v>698</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -21904,13 +21933,13 @@
         <v>22</v>
       </c>
       <c r="C162" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -21921,44 +21950,41 @@
         <v>22</v>
       </c>
       <c r="C163" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>699</v>
+        <v>1702</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B164" s="1">
         <v>22</v>
       </c>
       <c r="C164" s="1">
-        <v>4</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B165" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C165" s="1">
-        <v>0</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>702</v>
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -21969,24 +21995,27 @@
         <v>23</v>
       </c>
       <c r="C166" s="1">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>703</v>
+        <v>2</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B167" s="1">
         <v>23</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>704</v>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -21997,13 +22026,13 @@
         <v>23</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -22014,13 +22043,13 @@
         <v>23</v>
       </c>
       <c r="C169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -22031,44 +22060,41 @@
         <v>23</v>
       </c>
       <c r="C170" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B171" s="1">
         <v>23</v>
       </c>
       <c r="C171" s="1">
-        <v>4</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B172" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C172" s="1">
-        <v>0</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>705</v>
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -22079,24 +22105,27 @@
         <v>24</v>
       </c>
       <c r="C173" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B174" s="1">
         <v>24</v>
       </c>
       <c r="C174" s="1">
-        <v>2</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>707</v>
+        <v>1</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -22107,13 +22136,13 @@
         <v>24</v>
       </c>
       <c r="C175" s="1">
-        <v>1</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>1712</v>
+        <v>2</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>1713</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -22124,13 +22153,13 @@
         <v>24</v>
       </c>
       <c r="C176" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -22141,44 +22170,41 @@
         <v>24</v>
       </c>
       <c r="C177" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B178" s="1">
         <v>24</v>
       </c>
       <c r="C178" s="1">
-        <v>4</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B179" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C179" s="1">
-        <v>0</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>708</v>
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -22189,24 +22215,27 @@
         <v>25</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B181" s="1">
         <v>25</v>
       </c>
       <c r="C181" s="1">
-        <v>2</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>710</v>
+        <v>1</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -22217,13 +22246,13 @@
         <v>25</v>
       </c>
       <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>1720</v>
+        <v>2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>1721</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -22234,13 +22263,13 @@
         <v>25</v>
       </c>
       <c r="C183" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -22251,44 +22280,41 @@
         <v>25</v>
       </c>
       <c r="C184" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B185" s="1">
         <v>25</v>
       </c>
       <c r="C185" s="1">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B186" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1728</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -22299,24 +22325,27 @@
         <v>26</v>
       </c>
       <c r="C187" s="1">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>712</v>
+        <v>2</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B188" s="1">
         <v>26</v>
       </c>
       <c r="C188" s="1">
-        <v>2</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>713</v>
+        <v>1</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>2014</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -22327,13 +22356,13 @@
         <v>26</v>
       </c>
       <c r="C189" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1729</v>
+        <v>2009</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1730</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -22344,13 +22373,13 @@
         <v>26</v>
       </c>
       <c r="C190" s="1">
-        <v>2</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>714</v>
+        <v>3</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>2010</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1972</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -22361,44 +22390,41 @@
         <v>26</v>
       </c>
       <c r="C191" s="1">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>1731</v>
+        <v>4</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>2011</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B192" s="1">
         <v>26</v>
       </c>
       <c r="C192" s="1">
-        <v>4</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B193" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C193" s="1">
-        <v>0</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>1973</v>
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -22409,24 +22435,27 @@
         <v>27</v>
       </c>
       <c r="C194" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B195" s="1">
         <v>27</v>
       </c>
       <c r="C195" s="1">
-        <v>2</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>715</v>
+        <v>1</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -22437,13 +22466,13 @@
         <v>27</v>
       </c>
       <c r="C196" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>720</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -22454,13 +22483,13 @@
         <v>27</v>
       </c>
       <c r="C197" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>718</v>
+        <v>1731</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>721</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -22471,66 +22500,60 @@
         <v>27</v>
       </c>
       <c r="C198" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>719</v>
+        <v>1733</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B199" s="1">
         <v>27</v>
       </c>
       <c r="C199" s="1">
-        <v>4</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>1736</v>
+        <v>0</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B200" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C200" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B201" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>723</v>
+        <v>2</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B202" s="1">
         <v>28</v>
@@ -22539,12 +22562,15 @@
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B203" s="1">
         <v>28</v>
@@ -22553,7 +22579,10 @@
         <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -22564,13 +22593,13 @@
         <v>28</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -22581,13 +22610,13 @@
         <v>28</v>
       </c>
       <c r="C205" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>727</v>
+        <v>1735</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>731</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -22598,44 +22627,41 @@
         <v>28</v>
       </c>
       <c r="C206" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B207" s="1">
         <v>28</v>
       </c>
       <c r="C207" s="1">
-        <v>4</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B208" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>1741</v>
+        <v>1</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -22646,24 +22672,27 @@
         <v>29</v>
       </c>
       <c r="C209" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B210" s="1">
         <v>29</v>
       </c>
       <c r="C210" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>733</v>
+        <v>726</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -22674,13 +22703,13 @@
         <v>29</v>
       </c>
       <c r="C211" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -22691,13 +22720,13 @@
         <v>29</v>
       </c>
       <c r="C212" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -22708,123 +22737,123 @@
         <v>29</v>
       </c>
       <c r="C213" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1744</v>
+        <v>728</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B214" s="1">
         <v>29</v>
       </c>
       <c r="C214" s="1">
-        <v>4</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>1747</v>
+        <v>0</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B215" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C215" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>1749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B216" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C216" s="1">
-        <v>6</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B217" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C217" s="1">
-        <v>0</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>738</v>
+        <v>1</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B218" s="1">
         <v>30</v>
       </c>
       <c r="C218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>3</v>
+        <v>1742</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>4</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B219" s="1">
         <v>30</v>
       </c>
       <c r="C219" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1750</v>
+        <v>1744</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B220" s="1">
         <v>30</v>
       </c>
       <c r="C220" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1751</v>
+        <v>1746</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -22835,13 +22864,13 @@
         <v>30</v>
       </c>
       <c r="C221" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>739</v>
+        <v>1748</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>740</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -22852,140 +22881,140 @@
         <v>30</v>
       </c>
       <c r="C222" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1752</v>
+        <v>735</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B223" s="1">
         <v>30</v>
       </c>
       <c r="C223" s="1">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>1755</v>
+        <v>0</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B224" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B225" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C225" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B226" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C226" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B227" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C227" s="1">
-        <v>0</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>741</v>
+        <v>1</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B228" s="1">
         <v>31</v>
       </c>
       <c r="C228" s="1">
-        <v>0</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>362</v>
+        <v>2</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>1752</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>481</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B229" s="1">
         <v>31</v>
       </c>
       <c r="C229" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>742</v>
+        <v>1754</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B230" s="1">
         <v>31</v>
       </c>
       <c r="C230" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>743</v>
+        <v>1756</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -22996,13 +23025,13 @@
         <v>31</v>
       </c>
       <c r="C231" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -23013,61 +23042,58 @@
         <v>31</v>
       </c>
       <c r="C232" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B233" s="1">
         <v>31</v>
       </c>
       <c r="C233" s="1">
-        <v>3</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>1767</v>
+        <v>0</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B234" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C234" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1768</v>
+        <v>362</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B235" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C235" s="1">
-        <v>0</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>744</v>
+        <v>1</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -23078,24 +23104,27 @@
         <v>32</v>
       </c>
       <c r="C236" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B237" s="1">
         <v>32</v>
       </c>
       <c r="C237" s="1">
-        <v>2</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>745</v>
+        <v>1</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -23106,13 +23135,13 @@
         <v>32</v>
       </c>
       <c r="C238" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1975</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -23123,13 +23152,13 @@
         <v>32</v>
       </c>
       <c r="C239" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1976</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -23140,44 +23169,41 @@
         <v>32</v>
       </c>
       <c r="C240" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B241" s="1">
         <v>32</v>
       </c>
       <c r="C241" s="1">
-        <v>4</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B242" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C242" s="1">
-        <v>0</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>747</v>
+        <v>1</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -23188,24 +23214,27 @@
         <v>33</v>
       </c>
       <c r="C243" s="1">
-        <v>1</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>748</v>
+        <v>2</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B244" s="1">
         <v>33</v>
       </c>
       <c r="C244" s="1">
-        <v>2</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>749</v>
+        <v>1</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -23216,13 +23245,13 @@
         <v>33</v>
       </c>
       <c r="C245" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1776</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -23233,13 +23262,13 @@
         <v>33</v>
       </c>
       <c r="C246" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>751</v>
+        <v>1771</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -23250,44 +23279,41 @@
         <v>33</v>
       </c>
       <c r="C247" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>750</v>
+        <v>1773</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B248" s="1">
         <v>33</v>
       </c>
       <c r="C248" s="1">
-        <v>4</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B249" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C249" s="1">
-        <v>0</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>753</v>
+        <v>1</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -23298,24 +23324,27 @@
         <v>34</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>754</v>
+        <v>2</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B251" s="1">
         <v>34</v>
       </c>
       <c r="C251" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>755</v>
+        <v>1775</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -23326,13 +23355,13 @@
         <v>34</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1780</v>
+        <v>751</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -23343,13 +23372,13 @@
         <v>34</v>
       </c>
       <c r="C253" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1782</v>
+        <v>750</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1783</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -23360,44 +23389,41 @@
         <v>34</v>
       </c>
       <c r="C254" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B255" s="1">
         <v>34</v>
       </c>
       <c r="C255" s="1">
-        <v>4</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B256" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C256" s="1">
-        <v>0</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>756</v>
+        <v>1</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -23408,24 +23434,27 @@
         <v>35</v>
       </c>
       <c r="C257" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B258" s="1">
         <v>35</v>
       </c>
       <c r="C258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>758</v>
+        <v>1780</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -23436,13 +23465,13 @@
         <v>35</v>
       </c>
       <c r="C259" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -23453,13 +23482,13 @@
         <v>35</v>
       </c>
       <c r="C260" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>759</v>
+        <v>1784</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>760</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -23470,44 +23499,41 @@
         <v>35</v>
       </c>
       <c r="C261" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B262" s="1">
         <v>35</v>
       </c>
       <c r="C262" s="1">
-        <v>4</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B263" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C263" s="1">
-        <v>0</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>761</v>
+        <v>1</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -23518,24 +23544,27 @@
         <v>36</v>
       </c>
       <c r="C264" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B265" s="1">
         <v>36</v>
       </c>
       <c r="C265" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>763</v>
+        <v>1788</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -23546,13 +23575,13 @@
         <v>36</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1794</v>
+        <v>759</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1795</v>
+        <v>760</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -23563,13 +23592,13 @@
         <v>36</v>
       </c>
       <c r="C267" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>765</v>
+        <v>1790</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>766</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -23580,44 +23609,41 @@
         <v>36</v>
       </c>
       <c r="C268" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>764</v>
+        <v>1792</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B269" s="1">
         <v>36</v>
       </c>
       <c r="C269" s="1">
-        <v>4</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B270" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>768</v>
+        <v>1</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -23628,24 +23654,27 @@
         <v>37</v>
       </c>
       <c r="C271" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B272" s="1">
         <v>37</v>
       </c>
       <c r="C272" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>770</v>
+        <v>1794</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -23656,13 +23685,13 @@
         <v>37</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -23673,13 +23702,13 @@
         <v>37</v>
       </c>
       <c r="C274" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1797</v>
+        <v>764</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1798</v>
+        <v>767</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -23690,44 +23719,41 @@
         <v>37</v>
       </c>
       <c r="C275" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B276" s="1">
         <v>37</v>
       </c>
       <c r="C276" s="1">
-        <v>4</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B277" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C277" s="1">
-        <v>0</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>1803</v>
+        <v>1</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -23738,24 +23764,27 @@
         <v>38</v>
       </c>
       <c r="C278" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B279" s="1">
         <v>38</v>
       </c>
       <c r="C279" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -23766,13 +23795,13 @@
         <v>38</v>
       </c>
       <c r="C280" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -23783,13 +23812,13 @@
         <v>38</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>775</v>
+        <v>1799</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -23800,44 +23829,41 @@
         <v>38</v>
       </c>
       <c r="C282" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B283" s="1">
         <v>38</v>
       </c>
       <c r="C283" s="1">
-        <v>4</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B284" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C284" s="1">
-        <v>0</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>1811</v>
+        <v>1</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -23848,24 +23874,27 @@
         <v>39</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B286" s="1">
         <v>39</v>
       </c>
       <c r="C286" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>777</v>
+        <v>1804</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -23876,13 +23905,13 @@
         <v>39</v>
       </c>
       <c r="C287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1812</v>
+        <v>775</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -23893,13 +23922,13 @@
         <v>39</v>
       </c>
       <c r="C288" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -23910,44 +23939,41 @@
         <v>39</v>
       </c>
       <c r="C289" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B290" s="1">
         <v>39</v>
       </c>
       <c r="C290" s="1">
-        <v>4</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B291" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C291" s="1">
-        <v>0</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>780</v>
+        <v>1</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -23958,24 +23984,27 @@
         <v>40</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>781</v>
+        <v>2</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B293" s="1">
         <v>40</v>
       </c>
       <c r="C293" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>782</v>
+        <v>1812</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -23986,13 +24015,13 @@
         <v>40</v>
       </c>
       <c r="C294" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>783</v>
+        <v>1814</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>785</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -24003,13 +24032,13 @@
         <v>40</v>
       </c>
       <c r="C295" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -24020,44 +24049,41 @@
         <v>40</v>
       </c>
       <c r="C296" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B297" s="1">
         <v>40</v>
       </c>
       <c r="C297" s="1">
-        <v>4</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B298" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1822</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -24068,24 +24094,27 @@
         <v>41</v>
       </c>
       <c r="C299" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B300" s="1">
         <v>41</v>
       </c>
       <c r="C300" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -24096,13 +24125,13 @@
         <v>41</v>
       </c>
       <c r="C301" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -24113,13 +24142,13 @@
         <v>41</v>
       </c>
       <c r="C302" s="1">
-        <v>2</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>789</v>
+        <v>3</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1978</v>
+        <v>786</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -24130,44 +24159,41 @@
         <v>41</v>
       </c>
       <c r="C303" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>790</v>
+        <v>1820</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B304" s="1">
         <v>41</v>
       </c>
       <c r="C304" s="1">
-        <v>4</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B305" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C305" s="1">
-        <v>0</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>1979</v>
+        <v>1</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -24178,24 +24204,27 @@
         <v>42</v>
       </c>
       <c r="C306" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B307" s="1">
         <v>42</v>
       </c>
       <c r="C307" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>795</v>
+        <v>1823</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -24206,13 +24235,13 @@
         <v>42</v>
       </c>
       <c r="C308" s="1">
-        <v>1</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>796</v>
+        <v>2</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1826</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -24223,13 +24252,13 @@
         <v>42</v>
       </c>
       <c r="C309" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1825</v>
+        <v>790</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1827</v>
+        <v>792</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -24240,44 +24269,41 @@
         <v>42</v>
       </c>
       <c r="C310" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1828</v>
+        <v>791</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B311" s="1">
         <v>42</v>
       </c>
       <c r="C311" s="1">
-        <v>4</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B312" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C312" s="1">
-        <v>0</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>797</v>
+        <v>1</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -24288,24 +24314,27 @@
         <v>43</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B314" s="1">
         <v>43</v>
       </c>
       <c r="C314" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -24316,13 +24345,13 @@
         <v>43</v>
       </c>
       <c r="C315" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -24333,13 +24362,13 @@
         <v>43</v>
       </c>
       <c r="C316" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>800</v>
+        <v>1828</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>801</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -24350,44 +24379,41 @@
         <v>43</v>
       </c>
       <c r="C317" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B318" s="1">
         <v>43</v>
       </c>
       <c r="C318" s="1">
-        <v>4</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B319" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C319" s="1">
-        <v>0</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>1838</v>
+        <v>1</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -24398,24 +24424,27 @@
         <v>44</v>
       </c>
       <c r="C320" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B321" s="1">
         <v>44</v>
       </c>
       <c r="C321" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>803</v>
+        <v>1832</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -24426,13 +24455,13 @@
         <v>44</v>
       </c>
       <c r="C322" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1839</v>
+        <v>800</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1840</v>
+        <v>801</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -24443,13 +24472,13 @@
         <v>44</v>
       </c>
       <c r="C323" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -24460,66 +24489,60 @@
         <v>44</v>
       </c>
       <c r="C324" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B325" s="1">
         <v>44</v>
       </c>
       <c r="C325" s="1">
-        <v>4</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B326" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C326" s="1">
-        <v>0</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>1847</v>
+        <v>1</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B327" s="1">
         <v>45</v>
       </c>
       <c r="C327" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>619</v>
+        <v>803</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B328" s="1">
         <v>45</v>
@@ -24528,12 +24551,15 @@
         <v>1</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>804</v>
+        <v>1839</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B329" s="1">
         <v>45</v>
@@ -24542,7 +24568,10 @@
         <v>2</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>805</v>
+        <v>1841</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -24553,13 +24582,13 @@
         <v>45</v>
       </c>
       <c r="C330" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -24570,123 +24599,123 @@
         <v>45</v>
       </c>
       <c r="C331" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B332" s="1">
         <v>45</v>
       </c>
       <c r="C332" s="1">
-        <v>3</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1854</v>
+        <v>0</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B333" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C333" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1856</v>
+        <v>619</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B334" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C334" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B335" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C335" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B336" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C336" s="1">
-        <v>0</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>1980</v>
+        <v>1</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B337" s="1">
         <v>46</v>
       </c>
       <c r="C337" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>810</v>
+        <v>1851</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B338" s="1">
         <v>46</v>
       </c>
       <c r="C338" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>813</v>
+        <v>1852</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -24697,13 +24726,13 @@
         <v>46</v>
       </c>
       <c r="C339" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>811</v>
+        <v>1855</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>814</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -24714,13 +24743,13 @@
         <v>46</v>
       </c>
       <c r="C340" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1857</v>
+        <v>806</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1858</v>
+        <v>808</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -24731,106 +24760,106 @@
         <v>46</v>
       </c>
       <c r="C341" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B342" s="1">
         <v>46</v>
       </c>
       <c r="C342" s="1">
-        <v>4</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1862</v>
+        <v>0</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B343" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C343" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1863</v>
+        <v>810</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B344" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C344" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B345" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C345" s="1">
-        <v>0</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>1982</v>
+        <v>1</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B346" s="1">
         <v>47</v>
       </c>
       <c r="C346" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>816</v>
+        <v>1857</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B347" s="1">
         <v>47</v>
       </c>
       <c r="C347" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -24841,13 +24870,13 @@
         <v>47</v>
       </c>
       <c r="C348" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>817</v>
+        <v>1859</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>820</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -24858,13 +24887,13 @@
         <v>47</v>
       </c>
       <c r="C349" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>818</v>
+        <v>1860</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>821</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -24875,106 +24904,106 @@
         <v>47</v>
       </c>
       <c r="C350" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B351" s="1">
         <v>47</v>
       </c>
       <c r="C351" s="1">
-        <v>4</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1868</v>
+        <v>0</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B352" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C352" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B353" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C353" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B354" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C354" s="1">
-        <v>0</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>1871</v>
+        <v>1</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B355" s="1">
         <v>48</v>
       </c>
       <c r="C355" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B356" s="1">
         <v>48</v>
       </c>
       <c r="C356" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>824</v>
+        <v>1865</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -24985,13 +25014,13 @@
         <v>48</v>
       </c>
       <c r="C357" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -25002,13 +25031,13 @@
         <v>48</v>
       </c>
       <c r="C358" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1873</v>
+        <v>819</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1875</v>
+        <v>822</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -25019,106 +25048,106 @@
         <v>48</v>
       </c>
       <c r="C359" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>825</v>
+        <v>1869</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B360" s="1">
         <v>48</v>
       </c>
       <c r="C360" s="1">
-        <v>4</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1983</v>
+        <v>0</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B361" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C361" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1878</v>
+        <v>823</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B362" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C362" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B363" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C363" s="1">
-        <v>0</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>1984</v>
+        <v>1</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B364" s="1">
         <v>49</v>
       </c>
       <c r="C364" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>829</v>
+        <v>1873</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>1875</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B365" s="1">
         <v>49</v>
       </c>
       <c r="C365" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -25129,13 +25158,13 @@
         <v>49</v>
       </c>
       <c r="C366" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1880</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -25146,13 +25175,13 @@
         <v>49</v>
       </c>
       <c r="C367" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -25163,106 +25192,106 @@
         <v>49</v>
       </c>
       <c r="C368" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B369" s="1">
         <v>49</v>
       </c>
       <c r="C369" s="1">
-        <v>4</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1885</v>
+        <v>0</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B370" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C370" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1985</v>
+        <v>829</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B371" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C371" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B372" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C372" s="1">
-        <v>0</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>1986</v>
+        <v>1</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B373" s="1">
         <v>50</v>
       </c>
       <c r="C373" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1887</v>
+        <v>1881</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B374" s="1">
         <v>50</v>
       </c>
       <c r="C374" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -25273,13 +25302,13 @@
         <v>50</v>
       </c>
       <c r="C375" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>835</v>
+        <v>1884</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>839</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -25290,13 +25319,13 @@
         <v>50</v>
       </c>
       <c r="C376" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>836</v>
+        <v>1886</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>840</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -25307,106 +25336,106 @@
         <v>50</v>
       </c>
       <c r="C377" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B378" s="1">
         <v>50</v>
       </c>
       <c r="C378" s="1">
-        <v>4</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1889</v>
+        <v>0</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B379" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C379" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B380" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C380" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B381" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C381" s="1">
-        <v>0</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>1987</v>
+        <v>1</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B382" s="1">
         <v>51</v>
       </c>
       <c r="C382" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1893</v>
+        <v>836</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B383" s="1">
         <v>51</v>
       </c>
       <c r="C383" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -25417,13 +25446,13 @@
         <v>51</v>
       </c>
       <c r="C384" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -25434,13 +25463,13 @@
         <v>51</v>
       </c>
       <c r="C385" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -25451,106 +25480,106 @@
         <v>51</v>
       </c>
       <c r="C386" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B387" s="1">
         <v>51</v>
       </c>
       <c r="C387" s="1">
-        <v>4</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1900</v>
+        <v>0</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B388" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C388" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>1902</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B389" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C389" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B390" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C390" s="1">
-        <v>0</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>844</v>
+        <v>1</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B391" s="1">
         <v>52</v>
       </c>
       <c r="C391" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>845</v>
+        <v>1896</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B392" s="1">
         <v>52</v>
       </c>
       <c r="C392" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -25561,13 +25590,13 @@
         <v>52</v>
       </c>
       <c r="C393" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>847</v>
+        <v>1899</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>849</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -25578,13 +25607,13 @@
         <v>52</v>
       </c>
       <c r="C394" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -25595,123 +25624,123 @@
         <v>52</v>
       </c>
       <c r="C395" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B396" s="1">
         <v>52</v>
       </c>
       <c r="C396" s="1">
-        <v>4</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>1909</v>
+        <v>0</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B397" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C397" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>1911</v>
+        <v>845</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B398" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C398" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B399" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C399" s="1">
-        <v>0</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>1912</v>
+        <v>1</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B400" s="1">
         <v>53</v>
       </c>
       <c r="C400" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>3</v>
+        <v>1905</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>4</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B401" s="1">
         <v>53</v>
       </c>
       <c r="C401" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>851</v>
+        <v>1906</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B402" s="1">
         <v>53</v>
       </c>
       <c r="C402" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>853</v>
+        <v>1908</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -25722,13 +25751,13 @@
         <v>53</v>
       </c>
       <c r="C403" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -25739,61 +25768,58 @@
         <v>53</v>
       </c>
       <c r="C404" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B405" s="1">
         <v>53</v>
       </c>
       <c r="C405" s="1">
-        <v>3</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>1916</v>
+        <v>0</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B406" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C406" s="1">
+        <v>0</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E406" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B407" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C407" s="1">
-        <v>0</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>855</v>
+        <v>1</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -25804,24 +25830,27 @@
         <v>54</v>
       </c>
       <c r="C408" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B409" s="1">
         <v>54</v>
       </c>
       <c r="C409" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>857</v>
+        <v>1914</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -25832,13 +25861,13 @@
         <v>54</v>
       </c>
       <c r="C410" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -25849,13 +25878,13 @@
         <v>54</v>
       </c>
       <c r="C411" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -25866,44 +25895,41 @@
         <v>54</v>
       </c>
       <c r="C412" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>859</v>
+        <v>1917</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B413" s="1">
         <v>54</v>
       </c>
       <c r="C413" s="1">
-        <v>4</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B414" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C414" s="1">
-        <v>0</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>1989</v>
+        <v>1</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -25914,24 +25940,27 @@
         <v>55</v>
       </c>
       <c r="C415" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B416" s="1">
         <v>55</v>
       </c>
       <c r="C416" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -25942,13 +25971,13 @@
         <v>55</v>
       </c>
       <c r="C417" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -25959,13 +25988,13 @@
         <v>55</v>
       </c>
       <c r="C418" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1923</v>
+        <v>859</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1924</v>
+        <v>862</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -25976,44 +26005,41 @@
         <v>55</v>
       </c>
       <c r="C419" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1925</v>
+        <v>860</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B420" s="1">
         <v>55</v>
       </c>
       <c r="C420" s="1">
-        <v>4</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B421" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C421" s="1">
-        <v>0</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>1927</v>
+        <v>1</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -26024,24 +26050,27 @@
         <v>56</v>
       </c>
       <c r="C422" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B423" s="1">
         <v>56</v>
       </c>
       <c r="C423" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>869</v>
+        <v>1921</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -26052,13 +26081,13 @@
         <v>56</v>
       </c>
       <c r="C424" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>870</v>
+        <v>1923</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>872</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -26069,13 +26098,13 @@
         <v>56</v>
       </c>
       <c r="C425" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -26086,44 +26115,41 @@
         <v>56</v>
       </c>
       <c r="C426" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B427" s="1">
         <v>56</v>
       </c>
       <c r="C427" s="1">
-        <v>4</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B428" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C428" s="1">
-        <v>0</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>1990</v>
+        <v>1</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -26134,24 +26160,27 @@
         <v>57</v>
       </c>
       <c r="C429" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B430" s="1">
         <v>57</v>
       </c>
       <c r="C430" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -26162,13 +26191,13 @@
         <v>57</v>
       </c>
       <c r="C431" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -26179,13 +26208,13 @@
         <v>57</v>
       </c>
       <c r="C432" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -26196,44 +26225,41 @@
         <v>57</v>
       </c>
       <c r="C433" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B434" s="1">
         <v>57</v>
       </c>
       <c r="C434" s="1">
-        <v>4</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B435" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C435" s="1">
-        <v>0</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>880</v>
+        <v>1</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -26244,24 +26270,27 @@
         <v>58</v>
       </c>
       <c r="C436" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1936</v>
+        <v>875</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B437" s="1">
         <v>58</v>
       </c>
       <c r="C437" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>881</v>
+        <v>1932</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -26272,13 +26301,13 @@
         <v>58</v>
       </c>
       <c r="C438" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1937</v>
+        <v>878</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -26289,13 +26318,13 @@
         <v>58</v>
       </c>
       <c r="C439" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1991</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -26306,44 +26335,41 @@
         <v>58</v>
       </c>
       <c r="C440" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B441" s="1">
         <v>58</v>
       </c>
       <c r="C441" s="1">
-        <v>4</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B442" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C442" s="1">
-        <v>0</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>1992</v>
+        <v>1</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -26354,24 +26380,27 @@
         <v>59</v>
       </c>
       <c r="C443" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B444" s="1">
         <v>59</v>
       </c>
       <c r="C444" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>884</v>
+        <v>859</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -26382,13 +26411,13 @@
         <v>59</v>
       </c>
       <c r="C445" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1942</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -26399,13 +26428,13 @@
         <v>59</v>
       </c>
       <c r="C446" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1943</v>
+        <v>882</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1944</v>
+        <v>883</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -26416,44 +26445,41 @@
         <v>59</v>
       </c>
       <c r="C447" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B448" s="1">
         <v>59</v>
       </c>
       <c r="C448" s="1">
-        <v>4</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B449" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C449" s="1">
-        <v>0</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>888</v>
+        <v>1</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -26464,24 +26490,27 @@
         <v>60</v>
       </c>
       <c r="C450" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1947</v>
+        <v>884</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B451" s="1">
         <v>60</v>
       </c>
       <c r="C451" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1948</v>
+        <v>1941</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -26492,13 +26521,13 @@
         <v>60</v>
       </c>
       <c r="C452" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -26509,13 +26538,13 @@
         <v>60</v>
       </c>
       <c r="C453" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -26526,64 +26555,55 @@
         <v>60</v>
       </c>
       <c r="C454" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B455" s="1">
         <v>60</v>
       </c>
       <c r="C455" s="1">
-        <v>4</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>893</v>
+        <v>0</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B456" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C456" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>894</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B457" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C457" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -26591,16 +26611,16 @@
         <v>2003</v>
       </c>
       <c r="B458" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C458" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>892</v>
+        <v>1949</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>895</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -26608,71 +26628,173 @@
         <v>2003</v>
       </c>
       <c r="B459" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C459" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B460" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C460" s="1">
-        <v>0</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B461" s="1">
         <v>61</v>
       </c>
       <c r="C461" s="1">
-        <v>1</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B462" s="1">
         <v>61</v>
       </c>
       <c r="C462" s="1">
-        <v>0</v>
-      </c>
-      <c r="D462" s="5" t="s">
-        <v>1958</v>
+        <v>5</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B463" s="1">
+        <v>61</v>
+      </c>
+      <c r="C463" s="1">
+        <v>6</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B464" s="1">
+        <v>61</v>
+      </c>
+      <c r="C464" s="1">
+        <v>7</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B465" s="1">
+        <v>61</v>
+      </c>
+      <c r="C465" s="1">
+        <v>8</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B466" s="1">
+        <v>61</v>
+      </c>
+      <c r="C466" s="1">
+        <v>0</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B467" s="1">
         <v>62</v>
       </c>
-      <c r="C463" s="1">
-        <v>1</v>
-      </c>
-      <c r="D463" s="1" t="s">
+      <c r="C467" s="1">
+        <v>1</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B468" s="1">
+        <v>62</v>
+      </c>
+      <c r="C468" s="1">
+        <v>0</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B469" s="1">
+        <v>63</v>
+      </c>
+      <c r="C469" s="1">
+        <v>1</v>
+      </c>
+      <c r="D469" s="1" t="s">
         <v>1959</v>
       </c>
     </row>
